--- a/result/results.xlsx
+++ b/result/results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\thesis\confRecAnalysis\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DUT_PhoneLab\papers process\Thesis\confRecAnalysis\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10800" windowWidth="51120" windowHeight="28335" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="28800" yWindow="-10800" windowWidth="51120" windowHeight="28335" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="statistics" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="bacon" sheetId="5" r:id="rId4"/>
     <sheet name="工作表1" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -3773,11 +3773,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="246256808"/>
-        <c:axId val="246249200"/>
+        <c:axId val="288554160"/>
+        <c:axId val="288554552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="246256808"/>
+        <c:axId val="288554160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3807,7 +3807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246249200"/>
+        <c:crossAx val="288554552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3815,7 +3815,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246249200"/>
+        <c:axId val="288554552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3826,7 +3826,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246256808"/>
+        <c:crossAx val="288554160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4355,11 +4355,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="247002760"/>
-        <c:axId val="247003144"/>
+        <c:axId val="288555336"/>
+        <c:axId val="310915728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="247002760"/>
+        <c:axId val="288555336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4369,7 +4369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247003144"/>
+        <c:crossAx val="310915728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4377,7 +4377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247003144"/>
+        <c:axId val="310915728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4388,7 +4388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247002760"/>
+        <c:crossAx val="288555336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4425,6 +4425,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6623,11 +6624,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="247025264"/>
-        <c:axId val="247031792"/>
+        <c:axId val="310916512"/>
+        <c:axId val="310916904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="247025264"/>
+        <c:axId val="310916512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6637,7 +6638,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247031792"/>
+        <c:crossAx val="310916904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6645,7 +6646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247031792"/>
+        <c:axId val="310916904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6656,13 +6657,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247025264"/>
+        <c:crossAx val="310916512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6692,6 +6694,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7938,11 +7941,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="247048096"/>
-        <c:axId val="247048480"/>
+        <c:axId val="310917688"/>
+        <c:axId val="310918080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="247048096"/>
+        <c:axId val="310917688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7952,7 +7955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247048480"/>
+        <c:crossAx val="310918080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7960,7 +7963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247048480"/>
+        <c:axId val="310918080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7971,13 +7974,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247048096"/>
+        <c:crossAx val="310917688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10507,11 +10511,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119787072"/>
-        <c:axId val="247092240"/>
+        <c:axId val="310918864"/>
+        <c:axId val="310919256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119787072"/>
+        <c:axId val="310918864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10521,7 +10525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247092240"/>
+        <c:crossAx val="310919256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10529,7 +10533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247092240"/>
+        <c:axId val="310919256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10540,7 +10544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119787072"/>
+        <c:crossAx val="310918864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13087,11 +13091,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="247083928"/>
-        <c:axId val="247084320"/>
+        <c:axId val="306918728"/>
+        <c:axId val="306919120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="247083928"/>
+        <c:axId val="306918728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13101,7 +13105,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247084320"/>
+        <c:crossAx val="306919120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13109,7 +13113,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247084320"/>
+        <c:axId val="306919120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13120,7 +13124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247083928"/>
+        <c:crossAx val="306918728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14126,8 +14130,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="247085104"/>
-        <c:axId val="246771880"/>
+        <c:axId val="306919904"/>
+        <c:axId val="306920296"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14468,11 +14472,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="246772664"/>
-        <c:axId val="246772272"/>
+        <c:axId val="306921080"/>
+        <c:axId val="306920688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="247085104"/>
+        <c:axId val="306919904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14482,7 +14486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246771880"/>
+        <c:crossAx val="306920296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14490,7 +14494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246771880"/>
+        <c:axId val="306920296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14501,12 +14505,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247085104"/>
+        <c:crossAx val="306919904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246772272"/>
+        <c:axId val="306920688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14516,12 +14520,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246772664"/>
+        <c:crossAx val="306921080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="246772664"/>
+        <c:axId val="306921080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14530,7 +14534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246772272"/>
+        <c:crossAx val="306920688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14540,7 +14544,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15901,11 +15904,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="246773448"/>
-        <c:axId val="246773840"/>
+        <c:axId val="306921864"/>
+        <c:axId val="306494256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="246773448"/>
+        <c:axId val="306921864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15915,7 +15918,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246773840"/>
+        <c:crossAx val="306494256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15923,7 +15926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246773840"/>
+        <c:axId val="306494256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15934,7 +15937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246773448"/>
+        <c:crossAx val="306921864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16542,8 +16545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -34998,8 +35001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K102"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -50425,8 +50428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F102" sqref="F3:F102"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
